--- a/src/cizinci.xlsx
+++ b/src/cizinci.xlsx
@@ -7,16 +7,17 @@
     <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
-    <sheet name="UKAZATELE" sheetId="2" r:id="rId2"/>
-    <sheet name="METAINFORMACE" sheetId="3" r:id="rId3"/>
+    <sheet name="src" sheetId="4" r:id="rId1"/>
+    <sheet name="DATA" sheetId="1" r:id="rId2"/>
+    <sheet name="UKAZATELE" sheetId="2" r:id="rId3"/>
+    <sheet name="METAINFORMACE" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="257">
   <si>
     <t>Data z Veřejné databáze ČSU</t>
   </si>
@@ -778,6 +779,18 @@
   </si>
   <si>
     <t>Český statistický úřad, Veřejná databáze</t>
+  </si>
+  <si>
+    <t>okres</t>
+  </si>
+  <si>
+    <t>cizinci</t>
+  </si>
+  <si>
+    <t>cizinci_mimo_eu</t>
+  </si>
+  <si>
+    <t>cizinci_mimo_SK</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1000,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1031,6 +1044,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1477,10 +1491,1430 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:XFD79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="str">
+        <f>DATA!B10</f>
+        <v>Hlavní město Praha</v>
+      </c>
+      <c r="B2">
+        <f>DATA!C10</f>
+        <v>171408</v>
+      </c>
+      <c r="C2">
+        <f>DATA!H10</f>
+        <v>114394</v>
+      </c>
+      <c r="D2">
+        <f>DATA!C10-DATA!F10</f>
+        <v>143845</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="str">
+        <f>DATA!B12</f>
+        <v>Benešov</v>
+      </c>
+      <c r="B3" s="17">
+        <f>DATA!C12</f>
+        <v>2315</v>
+      </c>
+      <c r="C3" s="17">
+        <f>DATA!H12</f>
+        <v>1113</v>
+      </c>
+      <c r="D3" s="17">
+        <f>DATA!C12-DATA!F12</f>
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="str">
+        <f>DATA!B13</f>
+        <v>Beroun</v>
+      </c>
+      <c r="B4" s="17">
+        <f>DATA!C13</f>
+        <v>3741</v>
+      </c>
+      <c r="C4" s="17">
+        <f>DATA!H13</f>
+        <v>1967</v>
+      </c>
+      <c r="D4" s="17">
+        <f>DATA!C13-DATA!F13</f>
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="str">
+        <f>DATA!B14</f>
+        <v>Kladno</v>
+      </c>
+      <c r="B5" s="17">
+        <f>DATA!C14</f>
+        <v>6846</v>
+      </c>
+      <c r="C5" s="17">
+        <f>DATA!H14</f>
+        <v>3976</v>
+      </c>
+      <c r="D5" s="17">
+        <f>DATA!C14-DATA!F14</f>
+        <v>4909</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="str">
+        <f>DATA!B15</f>
+        <v>Kolín</v>
+      </c>
+      <c r="B6" s="17">
+        <f>DATA!C15</f>
+        <v>3302</v>
+      </c>
+      <c r="C6" s="17">
+        <f>DATA!H15</f>
+        <v>1639</v>
+      </c>
+      <c r="D6" s="17">
+        <f>DATA!C15-DATA!F15</f>
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="str">
+        <f>DATA!B16</f>
+        <v>Kutná Hora</v>
+      </c>
+      <c r="B7" s="17">
+        <f>DATA!C16</f>
+        <v>2054</v>
+      </c>
+      <c r="C7" s="17">
+        <f>DATA!H16</f>
+        <v>1148</v>
+      </c>
+      <c r="D7" s="17">
+        <f>DATA!C16-DATA!F16</f>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="str">
+        <f>DATA!B17</f>
+        <v>Mělník</v>
+      </c>
+      <c r="B8" s="17">
+        <f>DATA!C17</f>
+        <v>4052</v>
+      </c>
+      <c r="C8" s="17">
+        <f>DATA!H17</f>
+        <v>2613</v>
+      </c>
+      <c r="D8" s="17">
+        <f>DATA!C17-DATA!F17</f>
+        <v>3092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="17" t="str">
+        <f>DATA!B18</f>
+        <v>Mladá Boleslav</v>
+      </c>
+      <c r="B9" s="17">
+        <f>DATA!C18</f>
+        <v>9651</v>
+      </c>
+      <c r="C9" s="17">
+        <f>DATA!H18</f>
+        <v>3208</v>
+      </c>
+      <c r="D9" s="17">
+        <f>DATA!C18-DATA!F18</f>
+        <v>5174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="17" t="str">
+        <f>DATA!B19</f>
+        <v>Nymburk</v>
+      </c>
+      <c r="B10" s="17">
+        <f>DATA!C19</f>
+        <v>3814</v>
+      </c>
+      <c r="C10" s="17">
+        <f>DATA!H19</f>
+        <v>2464</v>
+      </c>
+      <c r="D10" s="17">
+        <f>DATA!C19-DATA!F19</f>
+        <v>2831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="str">
+        <f>DATA!B20</f>
+        <v>Praha-východ</v>
+      </c>
+      <c r="B11" s="17">
+        <f>DATA!C20</f>
+        <v>11160</v>
+      </c>
+      <c r="C11" s="17">
+        <f>DATA!H20</f>
+        <v>6291</v>
+      </c>
+      <c r="D11" s="17">
+        <f>DATA!C20-DATA!F20</f>
+        <v>7931</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="str">
+        <f>DATA!B21</f>
+        <v>Praha-západ</v>
+      </c>
+      <c r="B12" s="17">
+        <f>DATA!C21</f>
+        <v>10282</v>
+      </c>
+      <c r="C12" s="17">
+        <f>DATA!H21</f>
+        <v>6155</v>
+      </c>
+      <c r="D12" s="17">
+        <f>DATA!C21-DATA!F21</f>
+        <v>8089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="str">
+        <f>DATA!B22</f>
+        <v>Příbram</v>
+      </c>
+      <c r="B13" s="17">
+        <f>DATA!C22</f>
+        <v>2648</v>
+      </c>
+      <c r="C13" s="17">
+        <f>DATA!H22</f>
+        <v>1585</v>
+      </c>
+      <c r="D13" s="17">
+        <f>DATA!C22-DATA!F22</f>
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="str">
+        <f>DATA!B23</f>
+        <v>Rakovník</v>
+      </c>
+      <c r="B14" s="17">
+        <f>DATA!C23</f>
+        <v>1817</v>
+      </c>
+      <c r="C14" s="17">
+        <f>DATA!H23</f>
+        <v>1143</v>
+      </c>
+      <c r="D14" s="17">
+        <f>DATA!C23-DATA!F23</f>
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="str">
+        <f>DATA!B25</f>
+        <v>České Budějovice</v>
+      </c>
+      <c r="B15" s="17">
+        <f>DATA!C25</f>
+        <v>5391</v>
+      </c>
+      <c r="C15" s="17">
+        <f>DATA!H25</f>
+        <v>3127</v>
+      </c>
+      <c r="D15" s="17">
+        <f>DATA!C25-DATA!F25</f>
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="str">
+        <f>DATA!B26</f>
+        <v>Český Krumlov</v>
+      </c>
+      <c r="B16" s="17">
+        <f>DATA!C26</f>
+        <v>2706</v>
+      </c>
+      <c r="C16" s="17">
+        <f>DATA!H26</f>
+        <v>1429</v>
+      </c>
+      <c r="D16" s="17">
+        <f>DATA!C26-DATA!F26</f>
+        <v>2313</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="str">
+        <f>DATA!B27</f>
+        <v>Jindřichův Hradec</v>
+      </c>
+      <c r="B17" s="17">
+        <f>DATA!C27</f>
+        <v>1729</v>
+      </c>
+      <c r="C17" s="17">
+        <f>DATA!H27</f>
+        <v>956</v>
+      </c>
+      <c r="D17" s="17">
+        <f>DATA!C27-DATA!F27</f>
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="str">
+        <f>DATA!B28</f>
+        <v>Písek</v>
+      </c>
+      <c r="B18" s="17">
+        <f>DATA!C28</f>
+        <v>1728</v>
+      </c>
+      <c r="C18" s="17">
+        <f>DATA!H28</f>
+        <v>1036</v>
+      </c>
+      <c r="D18" s="17">
+        <f>DATA!C28-DATA!F28</f>
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="str">
+        <f>DATA!B29</f>
+        <v>Prachatice</v>
+      </c>
+      <c r="B19" s="17">
+        <f>DATA!C29</f>
+        <v>1203</v>
+      </c>
+      <c r="C19" s="17">
+        <f>DATA!H29</f>
+        <v>786</v>
+      </c>
+      <c r="D19" s="17">
+        <f>DATA!C29-DATA!F29</f>
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="17" t="str">
+        <f>DATA!B30</f>
+        <v>Strakonice</v>
+      </c>
+      <c r="B20" s="17">
+        <f>DATA!C30</f>
+        <v>1870</v>
+      </c>
+      <c r="C20" s="17">
+        <f>DATA!H30</f>
+        <v>1063</v>
+      </c>
+      <c r="D20" s="17">
+        <f>DATA!C30-DATA!F30</f>
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="str">
+        <f>DATA!B31</f>
+        <v>Tábor</v>
+      </c>
+      <c r="B21" s="17">
+        <f>DATA!C31</f>
+        <v>1763</v>
+      </c>
+      <c r="C21" s="17">
+        <f>DATA!H31</f>
+        <v>1004</v>
+      </c>
+      <c r="D21" s="17">
+        <f>DATA!C31-DATA!F31</f>
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="17" t="str">
+        <f>DATA!B33</f>
+        <v>Domažlice</v>
+      </c>
+      <c r="B22" s="17">
+        <f>DATA!C33</f>
+        <v>2750</v>
+      </c>
+      <c r="C22" s="17">
+        <f>DATA!H33</f>
+        <v>1575</v>
+      </c>
+      <c r="D22" s="17">
+        <f>DATA!C33-DATA!F33</f>
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="str">
+        <f>DATA!B34</f>
+        <v>Klatovy</v>
+      </c>
+      <c r="B23" s="17">
+        <f>DATA!C34</f>
+        <v>2578</v>
+      </c>
+      <c r="C23" s="17">
+        <f>DATA!H34</f>
+        <v>1074</v>
+      </c>
+      <c r="D23" s="17">
+        <f>DATA!C34-DATA!F34</f>
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="17" t="str">
+        <f>DATA!B35</f>
+        <v>Plzeň-město</v>
+      </c>
+      <c r="B24" s="17">
+        <f>DATA!C35</f>
+        <v>13649</v>
+      </c>
+      <c r="C24" s="17">
+        <f>DATA!H35</f>
+        <v>7180</v>
+      </c>
+      <c r="D24" s="17">
+        <f>DATA!C35-DATA!F35</f>
+        <v>10153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="str">
+        <f>DATA!B36</f>
+        <v>Plzeň-jih</v>
+      </c>
+      <c r="B25" s="17">
+        <f>DATA!C36</f>
+        <v>1786</v>
+      </c>
+      <c r="C25" s="17">
+        <f>DATA!H36</f>
+        <v>696</v>
+      </c>
+      <c r="D25" s="17">
+        <f>DATA!C36-DATA!F36</f>
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="17" t="str">
+        <f>DATA!B37</f>
+        <v>Plzeň-sever</v>
+      </c>
+      <c r="B26" s="17">
+        <f>DATA!C37</f>
+        <v>1677</v>
+      </c>
+      <c r="C26" s="17">
+        <f>DATA!H37</f>
+        <v>686</v>
+      </c>
+      <c r="D26" s="17">
+        <f>DATA!C37-DATA!F37</f>
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="str">
+        <f>DATA!B38</f>
+        <v>Rokycany</v>
+      </c>
+      <c r="B27" s="17">
+        <f>DATA!C38</f>
+        <v>1614</v>
+      </c>
+      <c r="C27" s="17">
+        <f>DATA!H38</f>
+        <v>696</v>
+      </c>
+      <c r="D27" s="17">
+        <f>DATA!C38-DATA!F38</f>
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="17" t="str">
+        <f>DATA!B39</f>
+        <v>Tachov</v>
+      </c>
+      <c r="B28" s="17">
+        <f>DATA!C39</f>
+        <v>3250</v>
+      </c>
+      <c r="C28" s="17">
+        <f>DATA!H39</f>
+        <v>1719</v>
+      </c>
+      <c r="D28" s="17">
+        <f>DATA!C39-DATA!F39</f>
+        <v>2515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="str">
+        <f>DATA!B41</f>
+        <v>Cheb</v>
+      </c>
+      <c r="B29" s="17">
+        <f>DATA!C41</f>
+        <v>7302</v>
+      </c>
+      <c r="C29" s="17">
+        <f>DATA!H41</f>
+        <v>5273</v>
+      </c>
+      <c r="D29" s="17">
+        <f>DATA!C41-DATA!F41</f>
+        <v>6567</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="17" t="str">
+        <f>DATA!B42</f>
+        <v>Karlovy Vary</v>
+      </c>
+      <c r="B30" s="17">
+        <f>DATA!C42</f>
+        <v>9056</v>
+      </c>
+      <c r="C30" s="17">
+        <f>DATA!H42</f>
+        <v>6594</v>
+      </c>
+      <c r="D30" s="17">
+        <f>DATA!C42-DATA!F42</f>
+        <v>8347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="str">
+        <f>DATA!B43</f>
+        <v>Sokolov</v>
+      </c>
+      <c r="B31" s="17">
+        <f>DATA!C43</f>
+        <v>2715</v>
+      </c>
+      <c r="C31" s="17">
+        <f>DATA!H43</f>
+        <v>1254</v>
+      </c>
+      <c r="D31" s="17">
+        <f>DATA!C43-DATA!F43</f>
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="17" t="str">
+        <f>DATA!B45</f>
+        <v>Děčín</v>
+      </c>
+      <c r="B32" s="17">
+        <f>DATA!C45</f>
+        <v>4175</v>
+      </c>
+      <c r="C32" s="17">
+        <f>DATA!H45</f>
+        <v>2520</v>
+      </c>
+      <c r="D32" s="17">
+        <f>DATA!C45-DATA!F45</f>
+        <v>3734</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="17" t="str">
+        <f>DATA!B46</f>
+        <v>Chomutov</v>
+      </c>
+      <c r="B33" s="17">
+        <f>DATA!C46</f>
+        <v>5512</v>
+      </c>
+      <c r="C33" s="17">
+        <f>DATA!H46</f>
+        <v>2786</v>
+      </c>
+      <c r="D33" s="17">
+        <f>DATA!C46-DATA!F46</f>
+        <v>4706</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="17" t="str">
+        <f>DATA!B47</f>
+        <v>Litoměřice</v>
+      </c>
+      <c r="B34" s="17">
+        <f>DATA!C47</f>
+        <v>3453</v>
+      </c>
+      <c r="C34" s="17">
+        <f>DATA!H47</f>
+        <v>2116</v>
+      </c>
+      <c r="D34" s="17">
+        <f>DATA!C47-DATA!F47</f>
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="17" t="str">
+        <f>DATA!B48</f>
+        <v>Louny</v>
+      </c>
+      <c r="B35" s="17">
+        <f>DATA!C48</f>
+        <v>2183</v>
+      </c>
+      <c r="C35" s="17">
+        <f>DATA!H48</f>
+        <v>1077</v>
+      </c>
+      <c r="D35" s="17">
+        <f>DATA!C48-DATA!F48</f>
+        <v>1573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="17" t="str">
+        <f>DATA!B49</f>
+        <v>Most</v>
+      </c>
+      <c r="B36" s="17">
+        <f>DATA!C49</f>
+        <v>4985</v>
+      </c>
+      <c r="C36" s="17">
+        <f>DATA!H49</f>
+        <v>1830</v>
+      </c>
+      <c r="D36" s="17">
+        <f>DATA!C49-DATA!F49</f>
+        <v>4385</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="17" t="str">
+        <f>DATA!B50</f>
+        <v>Teplice</v>
+      </c>
+      <c r="B37" s="17">
+        <f>DATA!C50</f>
+        <v>7543</v>
+      </c>
+      <c r="C37" s="17">
+        <f>DATA!H50</f>
+        <v>3849</v>
+      </c>
+      <c r="D37" s="17">
+        <f>DATA!C50-DATA!F50</f>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="17" t="str">
+        <f>DATA!B51</f>
+        <v>Ústí nad Labem</v>
+      </c>
+      <c r="B38" s="17">
+        <f>DATA!C51</f>
+        <v>4761</v>
+      </c>
+      <c r="C38" s="17">
+        <f>DATA!H51</f>
+        <v>2850</v>
+      </c>
+      <c r="D38" s="17">
+        <f>DATA!C51-DATA!F51</f>
+        <v>3956</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="17" t="str">
+        <f>DATA!B53</f>
+        <v>Česká Lípa</v>
+      </c>
+      <c r="B39" s="17">
+        <f>DATA!C53</f>
+        <v>3602</v>
+      </c>
+      <c r="C39" s="17">
+        <f>DATA!H53</f>
+        <v>2341</v>
+      </c>
+      <c r="D39" s="17">
+        <f>DATA!C53-DATA!F53</f>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="17" t="str">
+        <f>DATA!B54</f>
+        <v>Jablonec nad Nisou</v>
+      </c>
+      <c r="B40" s="17">
+        <f>DATA!C54</f>
+        <v>3827</v>
+      </c>
+      <c r="C40" s="17">
+        <f>DATA!H54</f>
+        <v>1832</v>
+      </c>
+      <c r="D40" s="17">
+        <f>DATA!C54-DATA!F54</f>
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="str">
+        <f>DATA!B55</f>
+        <v>Liberec</v>
+      </c>
+      <c r="B41" s="17">
+        <f>DATA!C55</f>
+        <v>8712</v>
+      </c>
+      <c r="C41" s="17">
+        <f>DATA!H55</f>
+        <v>4883</v>
+      </c>
+      <c r="D41" s="17">
+        <f>DATA!C55-DATA!F55</f>
+        <v>6518</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="17" t="str">
+        <f>DATA!B56</f>
+        <v>Semily</v>
+      </c>
+      <c r="B42" s="17">
+        <f>DATA!C56</f>
+        <v>1753</v>
+      </c>
+      <c r="C42" s="17">
+        <f>DATA!H56</f>
+        <v>943</v>
+      </c>
+      <c r="D42" s="17">
+        <f>DATA!C56-DATA!F56</f>
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="17" t="str">
+        <f>DATA!B58</f>
+        <v>Hradec Králové</v>
+      </c>
+      <c r="B43" s="17">
+        <f>DATA!C58</f>
+        <v>4799</v>
+      </c>
+      <c r="C43" s="17">
+        <f>DATA!H58</f>
+        <v>3195</v>
+      </c>
+      <c r="D43" s="17">
+        <f>DATA!C58-DATA!F58</f>
+        <v>3893</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="17" t="str">
+        <f>DATA!B59</f>
+        <v>Jičín</v>
+      </c>
+      <c r="B44" s="17">
+        <f>DATA!C59</f>
+        <v>2014</v>
+      </c>
+      <c r="C44" s="17">
+        <f>DATA!H59</f>
+        <v>1039</v>
+      </c>
+      <c r="D44" s="17">
+        <f>DATA!C59-DATA!F59</f>
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="17" t="str">
+        <f>DATA!B60</f>
+        <v>Náchod</v>
+      </c>
+      <c r="B45" s="17">
+        <f>DATA!C60</f>
+        <v>2488</v>
+      </c>
+      <c r="C45" s="17">
+        <f>DATA!H60</f>
+        <v>1336</v>
+      </c>
+      <c r="D45" s="17">
+        <f>DATA!C60-DATA!F60</f>
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="17" t="str">
+        <f>DATA!B61</f>
+        <v>Rychnov nad Kněžnou</v>
+      </c>
+      <c r="B46" s="17">
+        <f>DATA!C61</f>
+        <v>1460</v>
+      </c>
+      <c r="C46" s="17">
+        <f>DATA!H61</f>
+        <v>599</v>
+      </c>
+      <c r="D46" s="17">
+        <f>DATA!C61-DATA!F61</f>
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="17" t="str">
+        <f>DATA!B62</f>
+        <v>Trutnov</v>
+      </c>
+      <c r="B47" s="17">
+        <f>DATA!C62</f>
+        <v>2922</v>
+      </c>
+      <c r="C47" s="17">
+        <f>DATA!H62</f>
+        <v>1187</v>
+      </c>
+      <c r="D47" s="17">
+        <f>DATA!C62-DATA!F62</f>
+        <v>2378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="17" t="str">
+        <f>DATA!B64</f>
+        <v>Chrudim</v>
+      </c>
+      <c r="B48" s="17">
+        <f>DATA!C64</f>
+        <v>1460</v>
+      </c>
+      <c r="C48" s="17">
+        <f>DATA!H64</f>
+        <v>849</v>
+      </c>
+      <c r="D48" s="17">
+        <f>DATA!C64-DATA!F64</f>
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="17" t="str">
+        <f>DATA!B65</f>
+        <v>Pardubice</v>
+      </c>
+      <c r="B49" s="17">
+        <f>DATA!C65</f>
+        <v>6369</v>
+      </c>
+      <c r="C49" s="17">
+        <f>DATA!H65</f>
+        <v>2928</v>
+      </c>
+      <c r="D49" s="17">
+        <f>DATA!C65-DATA!F65</f>
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="17" t="str">
+        <f>DATA!B66</f>
+        <v>Svitavy</v>
+      </c>
+      <c r="B50" s="17">
+        <f>DATA!C66</f>
+        <v>1205</v>
+      </c>
+      <c r="C50" s="17">
+        <f>DATA!H66</f>
+        <v>665</v>
+      </c>
+      <c r="D50" s="17">
+        <f>DATA!C66-DATA!F66</f>
+        <v>894</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="17" t="str">
+        <f>DATA!B67</f>
+        <v>Ústí nad Orlicí</v>
+      </c>
+      <c r="B51" s="17">
+        <f>DATA!C67</f>
+        <v>2977</v>
+      </c>
+      <c r="C51" s="17">
+        <f>DATA!H67</f>
+        <v>1125</v>
+      </c>
+      <c r="D51" s="17">
+        <f>DATA!C67-DATA!F67</f>
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="17" t="str">
+        <f>DATA!B69</f>
+        <v>Havlíčkův Brod</v>
+      </c>
+      <c r="B52" s="17">
+        <f>DATA!C69</f>
+        <v>1584</v>
+      </c>
+      <c r="C52" s="17">
+        <f>DATA!H69</f>
+        <v>889</v>
+      </c>
+      <c r="D52" s="17">
+        <f>DATA!C69-DATA!F69</f>
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="17" t="str">
+        <f>DATA!B70</f>
+        <v>Jihlava</v>
+      </c>
+      <c r="B53" s="17">
+        <f>DATA!C70</f>
+        <v>2473</v>
+      </c>
+      <c r="C53" s="17">
+        <f>DATA!H70</f>
+        <v>1506</v>
+      </c>
+      <c r="D53" s="17">
+        <f>DATA!C70-DATA!F70</f>
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="17" t="str">
+        <f>DATA!B71</f>
+        <v>Pelhřimov</v>
+      </c>
+      <c r="B54" s="17">
+        <f>DATA!C71</f>
+        <v>1565</v>
+      </c>
+      <c r="C54" s="17">
+        <f>DATA!H71</f>
+        <v>906</v>
+      </c>
+      <c r="D54" s="17">
+        <f>DATA!C71-DATA!F71</f>
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="17" t="str">
+        <f>DATA!B72</f>
+        <v>Třebíč</v>
+      </c>
+      <c r="B55" s="17">
+        <f>DATA!C72</f>
+        <v>1267</v>
+      </c>
+      <c r="C55" s="17">
+        <f>DATA!H72</f>
+        <v>831</v>
+      </c>
+      <c r="D55" s="17">
+        <f>DATA!C72-DATA!F72</f>
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="17" t="str">
+        <f>DATA!B73</f>
+        <v>Žďár nad Sázavou</v>
+      </c>
+      <c r="B56" s="17">
+        <f>DATA!C73</f>
+        <v>1161</v>
+      </c>
+      <c r="C56" s="17">
+        <f>DATA!H73</f>
+        <v>634</v>
+      </c>
+      <c r="D56" s="17">
+        <f>DATA!C73-DATA!F73</f>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="17" t="str">
+        <f>DATA!B75</f>
+        <v>Blansko</v>
+      </c>
+      <c r="B57" s="17">
+        <f>DATA!C75</f>
+        <v>2140</v>
+      </c>
+      <c r="C57" s="17">
+        <f>DATA!H75</f>
+        <v>1273</v>
+      </c>
+      <c r="D57" s="17">
+        <f>DATA!C75-DATA!F75</f>
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="17" t="str">
+        <f>DATA!B76</f>
+        <v>Brno-město</v>
+      </c>
+      <c r="B58" s="17">
+        <f>DATA!C76</f>
+        <v>24850</v>
+      </c>
+      <c r="C58" s="17">
+        <f>DATA!H76</f>
+        <v>15321</v>
+      </c>
+      <c r="D58" s="17">
+        <f>DATA!C76-DATA!F76</f>
+        <v>19460</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="17" t="str">
+        <f>DATA!B77</f>
+        <v>Brno-venkov</v>
+      </c>
+      <c r="B59" s="17">
+        <f>DATA!C77</f>
+        <v>4802</v>
+      </c>
+      <c r="C59" s="17">
+        <f>DATA!H77</f>
+        <v>2578</v>
+      </c>
+      <c r="D59" s="17">
+        <f>DATA!C77-DATA!F77</f>
+        <v>3311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="17" t="str">
+        <f>DATA!B78</f>
+        <v>Břeclav</v>
+      </c>
+      <c r="B60" s="17">
+        <f>DATA!C78</f>
+        <v>2423</v>
+      </c>
+      <c r="C60" s="17">
+        <f>DATA!H78</f>
+        <v>974</v>
+      </c>
+      <c r="D60" s="17">
+        <f>DATA!C78-DATA!F78</f>
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="17" t="str">
+        <f>DATA!B79</f>
+        <v>Hodonín</v>
+      </c>
+      <c r="B61" s="17">
+        <f>DATA!C79</f>
+        <v>2095</v>
+      </c>
+      <c r="C61" s="17">
+        <f>DATA!H79</f>
+        <v>676</v>
+      </c>
+      <c r="D61" s="17">
+        <f>DATA!C79-DATA!F79</f>
+        <v>898</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="17" t="str">
+        <f>DATA!B80</f>
+        <v>Vyškov</v>
+      </c>
+      <c r="B62" s="17">
+        <f>DATA!C80</f>
+        <v>1611</v>
+      </c>
+      <c r="C62" s="17">
+        <f>DATA!H80</f>
+        <v>912</v>
+      </c>
+      <c r="D62" s="17">
+        <f>DATA!C80-DATA!F80</f>
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="17" t="str">
+        <f>DATA!B81</f>
+        <v>Znojmo</v>
+      </c>
+      <c r="B63" s="17">
+        <f>DATA!C81</f>
+        <v>2445</v>
+      </c>
+      <c r="C63" s="17">
+        <f>DATA!H81</f>
+        <v>1185</v>
+      </c>
+      <c r="D63" s="17">
+        <f>DATA!C81-DATA!F81</f>
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="17" t="str">
+        <f>DATA!B83</f>
+        <v>Jeseník</v>
+      </c>
+      <c r="B64" s="17">
+        <f>DATA!C83</f>
+        <v>811</v>
+      </c>
+      <c r="C64" s="17">
+        <f>DATA!H83</f>
+        <v>234</v>
+      </c>
+      <c r="D64" s="17">
+        <f>DATA!C83-DATA!F83</f>
+        <v>631</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="17" t="str">
+        <f>DATA!B84</f>
+        <v>Olomouc</v>
+      </c>
+      <c r="B65" s="17">
+        <f>DATA!C84</f>
+        <v>4963</v>
+      </c>
+      <c r="C65" s="17">
+        <f>DATA!H84</f>
+        <v>2615</v>
+      </c>
+      <c r="D65" s="17">
+        <f>DATA!C84-DATA!F84</f>
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="17" t="str">
+        <f>DATA!B85</f>
+        <v>Prostějov</v>
+      </c>
+      <c r="B66" s="17">
+        <f>DATA!C85</f>
+        <v>1407</v>
+      </c>
+      <c r="C66" s="17">
+        <f>DATA!H85</f>
+        <v>716</v>
+      </c>
+      <c r="D66" s="17">
+        <f>DATA!C85-DATA!F85</f>
+        <v>902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="17" t="str">
+        <f>DATA!B86</f>
+        <v>Přerov</v>
+      </c>
+      <c r="B67" s="17">
+        <f>DATA!C86</f>
+        <v>1990</v>
+      </c>
+      <c r="C67" s="17">
+        <f>DATA!H86</f>
+        <v>1034</v>
+      </c>
+      <c r="D67" s="17">
+        <f>DATA!C86-DATA!F86</f>
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="str">
+        <f>DATA!B87</f>
+        <v>Šumperk</v>
+      </c>
+      <c r="B68" s="17">
+        <f>DATA!C87</f>
+        <v>1242</v>
+      </c>
+      <c r="C68" s="17">
+        <f>DATA!H87</f>
+        <v>601</v>
+      </c>
+      <c r="D68" s="17">
+        <f>DATA!C87-DATA!F87</f>
+        <v>925</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="str">
+        <f>DATA!B89</f>
+        <v>Kroměříž</v>
+      </c>
+      <c r="B69" s="17">
+        <f>DATA!C89</f>
+        <v>1130</v>
+      </c>
+      <c r="C69" s="17">
+        <f>DATA!H89</f>
+        <v>519</v>
+      </c>
+      <c r="D69" s="17">
+        <f>DATA!C89-DATA!F89</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="str">
+        <f>DATA!B90</f>
+        <v>Uherské Hradiště</v>
+      </c>
+      <c r="B70" s="17">
+        <f>DATA!C90</f>
+        <v>2353</v>
+      </c>
+      <c r="C70" s="17">
+        <f>DATA!H90</f>
+        <v>703</v>
+      </c>
+      <c r="D70" s="17">
+        <f>DATA!C90-DATA!F90</f>
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="17" t="str">
+        <f>DATA!B91</f>
+        <v>Vsetín</v>
+      </c>
+      <c r="B71" s="17">
+        <f>DATA!C91</f>
+        <v>1604</v>
+      </c>
+      <c r="C71" s="17">
+        <f>DATA!H91</f>
+        <v>543</v>
+      </c>
+      <c r="D71" s="17">
+        <f>DATA!C91-DATA!F91</f>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="17" t="str">
+        <f>DATA!B92</f>
+        <v>Zlín</v>
+      </c>
+      <c r="B72" s="17">
+        <f>DATA!C92</f>
+        <v>3451</v>
+      </c>
+      <c r="C72" s="17">
+        <f>DATA!H92</f>
+        <v>1484</v>
+      </c>
+      <c r="D72" s="17">
+        <f>DATA!C92-DATA!F92</f>
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="str">
+        <f>DATA!B94</f>
+        <v>Bruntál</v>
+      </c>
+      <c r="B73" s="17">
+        <f>DATA!C94</f>
+        <v>935</v>
+      </c>
+      <c r="C73" s="17">
+        <f>DATA!H94</f>
+        <v>277</v>
+      </c>
+      <c r="D73" s="17">
+        <f>DATA!C94-DATA!F94</f>
+        <v>604</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="17" t="str">
+        <f>DATA!B95</f>
+        <v>Frýdek-Místek</v>
+      </c>
+      <c r="B74" s="17">
+        <f>DATA!C95</f>
+        <v>3602</v>
+      </c>
+      <c r="C74" s="17">
+        <f>DATA!H95</f>
+        <v>1090</v>
+      </c>
+      <c r="D74" s="17">
+        <f>DATA!C95-DATA!F95</f>
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="17" t="str">
+        <f>DATA!B96</f>
+        <v>Karviná</v>
+      </c>
+      <c r="B75" s="17">
+        <f>DATA!C96</f>
+        <v>6253</v>
+      </c>
+      <c r="C75" s="17">
+        <f>DATA!H96</f>
+        <v>747</v>
+      </c>
+      <c r="D75" s="17">
+        <f>DATA!C96-DATA!F96</f>
+        <v>4349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="17" t="str">
+        <f>DATA!B97</f>
+        <v>Nový Jičín</v>
+      </c>
+      <c r="B76" s="17">
+        <f>DATA!C97</f>
+        <v>1800</v>
+      </c>
+      <c r="C76" s="17">
+        <f>DATA!H97</f>
+        <v>671</v>
+      </c>
+      <c r="D76" s="17">
+        <f>DATA!C97-DATA!F97</f>
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="17" t="str">
+        <f>DATA!B98</f>
+        <v>Opava</v>
+      </c>
+      <c r="B77" s="17">
+        <f>DATA!C98</f>
+        <v>1649</v>
+      </c>
+      <c r="C77" s="17">
+        <f>DATA!H98</f>
+        <v>645</v>
+      </c>
+      <c r="D77" s="17">
+        <f>DATA!C98-DATA!F98</f>
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="17" t="str">
+        <f>DATA!B99</f>
+        <v>Ostrava-město</v>
+      </c>
+      <c r="B78" s="17">
+        <f>DATA!C99</f>
+        <v>10254</v>
+      </c>
+      <c r="C78" s="17">
+        <f>DATA!H99</f>
+        <v>5339</v>
+      </c>
+      <c r="D78" s="17">
+        <f>DATA!C99-DATA!F99</f>
+        <v>7004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C100" sqref="C100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1508,57 +2942,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="21" t="s">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="21" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="19"/>
       <c r="I8" s="2" t="s">
         <v>11</v>
       </c>
@@ -4596,7 +6030,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -4671,11 +6105,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
